--- a/UI_Automation/testdata/TestInput.xlsx
+++ b/UI_Automation/testdata/TestInput.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supriya_ingale\Desktop\UI_Automation\UI_Automation\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewWork\UI_Automation\UI_Automation\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D251DF-2AD9-46E3-A7C0-C541AA3D36C6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CC22FB-F5AC-471F-AD75-AD715FB01D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8F3026E6-BE11-D743-BE9D-C0CACA64A029}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="14790" windowHeight="8850" activeTab="1" xr2:uid="{8F3026E6-BE11-D743-BE9D-C0CACA64A029}"/>
   </bookViews>
   <sheets>
     <sheet name="Browser" sheetId="1" r:id="rId1"/>
-    <sheet name="LoginTest" sheetId="2" r:id="rId2"/>
+    <sheet name="TestURLs" sheetId="2" r:id="rId2"/>
+    <sheet name="VIP_Profiles" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,27 +33,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Browser</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Corretness_Flag</t>
-  </si>
-  <si>
     <t>TestURL</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Hecht</t>
+  </si>
+  <si>
+    <t>Fuster</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Galatz</t>
+  </si>
+  <si>
+    <t>Tewari</t>
+  </si>
+  <si>
+    <t>Satlin</t>
+  </si>
+  <si>
+    <t>Guttman</t>
+  </si>
+  <si>
+    <t>Bederson</t>
+  </si>
+  <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>Isola</t>
+  </si>
+  <si>
+    <t>Carr</t>
+  </si>
+  <si>
+    <t>Cassano</t>
+  </si>
+  <si>
+    <t>Brodman</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>Urken</t>
+  </si>
+  <si>
+    <t>Genden</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>Flatow</t>
+  </si>
+  <si>
+    <t>Tsai</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Valentin</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Samin</t>
+  </si>
+  <si>
+    <t>Leesa</t>
+  </si>
+  <si>
+    <t>Ashutosh</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Elisa</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Brendan</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Raja</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>http://mshs-prod-cds-1.ot.mountsinai.org/</t>
+  </si>
+  <si>
+    <t>http://mshs-prod-cds-2.ot.mountsinai.org/</t>
   </si>
   <si>
     <t>https://www.mountsinai.org/</t>
@@ -114,13 +238,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -452,7 +577,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -469,51 +594,236 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38033125-F272-2142-8B74-38DD841F5905}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="D3" s="1"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{9C7008DC-D74D-6345-A62D-F0390143FEDF}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{E95991C2-A8B3-4C69-AB04-07B2B613D537}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{37495C74-A434-40BE-A45A-ADCB5EAA371B}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{CCAE4B29-6E3B-4A76-9E45-55FFBEC7A6FF}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D805FB5-40E8-48A5-9459-8626627BC86B}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/UI_Automation/testdata/TestInput.xlsx
+++ b/UI_Automation/testdata/TestInput.xlsx
@@ -5,35 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewWork\UI_Automation\UI_Automation\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSQA\UI_Automation\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CC22FB-F5AC-471F-AD75-AD715FB01D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6D0BB8-B5AA-4018-B6CF-08F5E46C0981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="14790" windowHeight="8850" activeTab="1" xr2:uid="{8F3026E6-BE11-D743-BE9D-C0CACA64A029}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Browser" sheetId="1" r:id="rId1"/>
     <sheet name="TestURLs" sheetId="2" r:id="rId2"/>
     <sheet name="VIP_Profiles" sheetId="3" r:id="rId3"/>
+    <sheet name="EOS_Profiles" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
   <si>
     <t>Browser</t>
   </si>
@@ -180,13 +176,223 @@
   </si>
   <si>
     <t>https://www.mountsinai.org/</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>JANET</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>JASON</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>Mann</t>
+  </si>
+  <si>
+    <t>Filopei</t>
+  </si>
+  <si>
+    <t>Bose</t>
+  </si>
+  <si>
+    <t>Tran</t>
+  </si>
+  <si>
+    <t>Kuwama</t>
+  </si>
+  <si>
+    <t>Kano</t>
+  </si>
+  <si>
+    <t>PATEL</t>
+  </si>
+  <si>
+    <t>ABRAMS</t>
+  </si>
+  <si>
+    <t>STEIGER</t>
+  </si>
+  <si>
+    <t>BRONSTEIN</t>
+  </si>
+  <si>
+    <t>BUDDE</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Sonali</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Maki</t>
+  </si>
+  <si>
+    <t>LEE-WONG</t>
+  </si>
+  <si>
+    <t>KOROBOW</t>
+  </si>
+  <si>
+    <t>Maglione</t>
+  </si>
+  <si>
+    <t>Teitel</t>
+  </si>
+  <si>
+    <t>Yost</t>
+  </si>
+  <si>
+    <t>BALASUNDARAM</t>
+  </si>
+  <si>
+    <t>BAJPAYEE</t>
+  </si>
+  <si>
+    <t>KOTKIN</t>
+  </si>
+  <si>
+    <t>NEUMANN</t>
+  </si>
+  <si>
+    <t>WU</t>
+  </si>
+  <si>
+    <t>BERNSTEIN</t>
+  </si>
+  <si>
+    <t>WEISBERG</t>
+  </si>
+  <si>
+    <t>SAWHNEY</t>
+  </si>
+  <si>
+    <t>MCKINLEY</t>
+  </si>
+  <si>
+    <t>CAPLIVSKI</t>
+  </si>
+  <si>
+    <t>CAHILL</t>
+  </si>
+  <si>
+    <t>FIERER</t>
+  </si>
+  <si>
+    <t>MULLEN</t>
+  </si>
+  <si>
+    <t>WINSTON</t>
+  </si>
+  <si>
+    <t>PAPANAGNOU</t>
+  </si>
+  <si>
+    <t>GRUBER</t>
+  </si>
+  <si>
+    <t>VASSALOTTI</t>
+  </si>
+  <si>
+    <t>KIM</t>
+  </si>
+  <si>
+    <t>MARY</t>
+  </si>
+  <si>
+    <t>AMY</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Sharon</t>
+  </si>
+  <si>
+    <t>KIRUTHIKA</t>
+  </si>
+  <si>
+    <t>GARGI</t>
+  </si>
+  <si>
+    <t>SEAN</t>
+  </si>
+  <si>
+    <t>DEBORAH</t>
+  </si>
+  <si>
+    <t>CHRISTINE</t>
+  </si>
+  <si>
+    <t>BRETT</t>
+  </si>
+  <si>
+    <t>ILAN</t>
+  </si>
+  <si>
+    <t>JAHNAVI</t>
+  </si>
+  <si>
+    <t>PRUTHVI</t>
+  </si>
+  <si>
+    <t>GEORGE</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>JOHN</t>
+  </si>
+  <si>
+    <t>MICHAEL</t>
+  </si>
+  <si>
+    <t>JONATHAN</t>
+  </si>
+  <si>
+    <t>ANASTASIOS</t>
+  </si>
+  <si>
+    <t>STEVEN</t>
+  </si>
+  <si>
+    <t>JOSEPH</t>
+  </si>
+  <si>
+    <t>TONIA</t>
+  </si>
+  <si>
+    <t>Yuichiro</t>
+  </si>
+  <si>
+    <t>cohen</t>
+  </si>
+  <si>
+    <t>ian</t>
+  </si>
+  <si>
+    <t>Carolyn</t>
+  </si>
+  <si>
+    <t>iocolano</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -209,21 +415,123 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -238,7 +546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,10 +554,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{4FBBD01A-0163-4A43-8D52-0DF14F52FC94}"/>
+    <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -561,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9965A1D6-5E92-2C43-A874-E3A29E08A8E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -582,7 +908,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{5DACB43F-0D3E-A142-9FAF-F6291E0BACDB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"chrome,firefox,ie"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -593,10 +919,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38033125-F272-2142-8B74-38DD841F5905}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -628,9 +954,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{E95991C2-A8B3-4C69-AB04-07B2B613D537}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{37495C74-A434-40BE-A45A-ADCB5EAA371B}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{CCAE4B29-6E3B-4A76-9E45-55FFBEC7A6FF}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -638,11 +964,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D805FB5-40E8-48A5-9459-8626627BC86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -826,4 +1152,362 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4D19A8-AA5A-4A40-BA0A-6FDD0B4A1C70}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30.75" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30.75" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30.75" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30.75" thickBot="1">
+      <c r="A6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30.75" thickBot="1">
+      <c r="A7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30.75" thickBot="1">
+      <c r="A9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.75" thickBot="1">
+      <c r="A10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30.75" thickBot="1">
+      <c r="A11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30.75" thickBot="1">
+      <c r="A12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30.75" thickBot="1">
+      <c r="A13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30.75" thickBot="1">
+      <c r="A15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30.75" thickBot="1">
+      <c r="A16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75" thickBot="1">
+      <c r="A20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30.75" thickBot="1">
+      <c r="A21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30.75" thickBot="1">
+      <c r="A23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30.75" thickBot="1">
+      <c r="A27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>